--- a/config/sectors.xlsx
+++ b/config/sectors.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Documents\Hector\Kooperationsphase IO-Modelle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Documents\Hector\Kooperationsphase IO-Modelle\exiobase_explorer\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A08603E-CAEC-48A4-AE6E-4C75249D5D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223B183C-2593-4E4B-B13C-094715AFB9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6932,7 +6932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C379D830-202D-4ECB-B7AD-7DF819B8A6BC}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>

--- a/config/sectors.xlsx
+++ b/config/sectors.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Documents\Hector\Kooperationsphase IO-Modelle\exiobase_explorer\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F693E0C7-6075-4AF5-A080-CED7D13AAE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4387A1-455C-4523-8EFA-FDDD2510873B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="exiobase" sheetId="1" r:id="rId1"/>
+    <sheet name="Exiobase" sheetId="1" r:id="rId1"/>
     <sheet name="raw_material" sheetId="7" r:id="rId2"/>
-    <sheet name="german" sheetId="6" r:id="rId3"/>
-    <sheet name="english" sheetId="5" r:id="rId4"/>
+    <sheet name="Deutsch" sheetId="6" r:id="rId3"/>
+    <sheet name="Englisch" sheetId="5" r:id="rId4"/>
     <sheet name="wz03" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -3163,7 +3163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A2F9B0-7ACF-4166-84E3-05F2E6F25C81}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -8229,8 +8229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
